--- a/bad information mining/需要检测的页面/https___www.asvmw.cc_.xlsx
+++ b/bad information mining/需要检测的页面/https___www.asvmw.cc_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,134 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>('/books/85357/', 'https://www.asvmw.cc/books/85357/')</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>('/books/85357/1825516.html', 'https://www.asvmw.cc/books/85357/1825516.html')</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>('/books/7465/', 'https://www.asvmw.cc/books/7465/')</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>('/books/85357/1825528.html', 'https://www.asvmw.cc/books/85357/1825528.html')</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>('/books/18222/', 'https://www.asvmw.cc/books/18222/')</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>('/books/85357/1825541.html', 'https://www.asvmw.cc/books/85357/1825541.html')</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>('/books/21315/', 'https://www.asvmw.cc/books/21315/')</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>('/books/85357/1825527.html', 'https://www.asvmw.cc/books/85357/1825527.html')</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>('/books/85357/1825543.html', 'https://www.asvmw.cc/books/85357/1825543.html')</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>('/books/7465/5866297.html', 'https://www.asvmw.cc/books/7465/5866297.html')</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>('/books/7465/5866320.html', 'https://www.asvmw.cc/books/7465/5866320.html')</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>('/books/7465/5866261.html', 'https://www.asvmw.cc/books/7465/5866261.html')</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>('/books/7465/8381294.html', 'https://www.asvmw.cc/books/7465/8381294.html')</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>('/books/18222/576484.html', 'https://www.asvmw.cc/books/18222/576484.html')</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>('/books/18222/576481.html', 'https://www.asvmw.cc/books/18222/576481.html')</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>('/books/18222/1899848.html', 'https://www.asvmw.cc/books/18222/1899848.html')</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>('/books/18222/576482.html', 'https://www.asvmw.cc/books/18222/576482.html')</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>('/books/21315/1627643.html', 'https://www.asvmw.cc/books/21315/1627643.html')</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
